--- a/data/descargas/venta_total.xlsx
+++ b/data/descargas/venta_total.xlsx
@@ -690,7 +690,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:11 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 06:30 a. m. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>

--- a/data/descargas/venta_total.xlsx
+++ b/data/descargas/venta_total.xlsx
@@ -690,7 +690,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:30 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 06:37 a. m. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>

--- a/data/descargas/venta_total.xlsx
+++ b/data/descargas/venta_total.xlsx
@@ -690,7 +690,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:37 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 06:47 a. m. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>

--- a/data/descargas/venta_total.xlsx
+++ b/data/descargas/venta_total.xlsx
@@ -690,7 +690,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:47 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 07:15 a. m. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>

--- a/data/descargas/venta_total.xlsx
+++ b/data/descargas/venta_total.xlsx
@@ -690,7 +690,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 07:15 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 07:37 a. m. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
